--- a/EmployeeManagement/TestData/Orange_data.xlsx
+++ b/EmployeeManagement/TestData/Orange_data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shitalc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shitalc\Desktop\C#_2022\AutomationFramework\EmployeeManagement\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D960A206-4549-4D72-9DC7-FE0AE0A8A8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5E529A-49E2-4CA5-9031-ED497FF2BD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="0" windowWidth="15420" windowHeight="10200" xr2:uid="{BB305CE5-ED14-4EFF-8A75-1F3D64334E23}"/>
+    <workbookView xWindow="1520" yWindow="0" windowWidth="15420" windowHeight="10200" activeTab="1" xr2:uid="{BB305CE5-ED14-4EFF-8A75-1F3D64334E23}"/>
   </bookViews>
   <sheets>
     <sheet name="InvalidLoginTest" sheetId="1" r:id="rId1"/>
+    <sheet name="AddEmployeeTestData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -60,6 +61,27 @@
   </si>
   <si>
     <t>Invalid credentials</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>middlename</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>verify</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>wick</t>
   </si>
 </sst>
 </file>
@@ -413,7 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D35E3D-3BEF-4DF1-B3B5-9CAFA24CAA2F}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -460,4 +482,62 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99818051-67B6-4345-9A54-5D2B92DFBAB8}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EmployeeManagement/TestData/Orange_data.xlsx
+++ b/EmployeeManagement/TestData/Orange_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shitalc\Desktop\C#_2022\AutomationFramework\EmployeeManagement\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5E529A-49E2-4CA5-9031-ED497FF2BD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5B6754-AA63-4B1D-82F1-2D9DE85CFCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="0" windowWidth="15420" windowHeight="10200" activeTab="1" xr2:uid="{BB305CE5-ED14-4EFF-8A75-1F3D64334E23}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>username</t>
   </si>
@@ -82,16 +82,47 @@
   </si>
   <si>
     <t>wick</t>
+  </si>
+  <si>
+    <t>saul</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>goodman</t>
+  </si>
+  <si>
+    <t>john wick</t>
+  </si>
+  <si>
+    <t>saul goodman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,8 +148,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,10 +466,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D35E3D-3BEF-4DF1-B3B5-9CAFA24CAA2F}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -447,13 +483,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -481,39 +517,44 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99818051-67B6-4345-9A54-5D2B92DFBAB8}">
-  <dimension ref="A1:F2"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -534,7 +575,27 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
